--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -398,6 +398,126 @@
   </si>
   <si>
     <t>subject_application_version: 1.0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3c9580e89dfc8ee90f9594bbc6797e13e95777e281f776721460405d74e90bfc.c9c1b8f7e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3885948633e2430a</t>
+  </si>
+  <si>
+    <t>2023-02-16T09:58:49Z</t>
+  </si>
+  <si>
+    <t>2023-02-16T10:06:59Z</t>
+  </si>
+  <si>
+    <t>0797be1e29ae8e9b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3c9580e89dfc8ee90f9594bbc6797e13e95777e281f776721460405d74e90bfc.50fb6a4f4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T10:12:00Z</t>
+  </si>
+  <si>
+    <t>499278d99079013e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.f1d3da9f95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T10:56:24Z</t>
+  </si>
+  <si>
+    <t>383487740e40dc1d</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2023-02-16T10:58:05Z</t>
+  </si>
+  <si>
+    <t>d5d25318ad4b2383</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.335aeffdf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T10:59:43Z</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:27:01Z</t>
+  </si>
+  <si>
+    <t>bb2a789d1a73acec</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.aae911f7fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:29:13Z</t>
+  </si>
+  <si>
+    <t>d85b3707c7221064</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.f68e119e98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:30:41Z</t>
+  </si>
+  <si>
+    <t>96bc5c4be919f110</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.aef4b27ab1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:34:00Z</t>
+  </si>
+  <si>
+    <t>10834f67506f89ee</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.56c8d198d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f655906cba38d14d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.e9a27e9851^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:39:47Z</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:41:48Z</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:46:12Z</t>
+  </si>
+  <si>
+    <t>1c70b718c304ff5e</t>
+  </si>
+  <si>
+    <t>3242a497e4dc21dc</t>
+  </si>
+  <si>
+    <t>5345d86d4cd02a52</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.cc625a5d31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.47c5d5c8a0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.2a73b8c88d6b38bea4c234df5971b4dabd1d919d693dcd838792b2de68873c73.d66f7caab7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-16T11:35:48Z</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1157,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1255,10 +1375,18 @@
       <c r="E10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="F10" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16" t="s">
         <v>23</v>
@@ -1286,10 +1414,18 @@
       <c r="E11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="15"/>
+      <c r="F11" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16" t="s">
         <v>23</v>
@@ -1317,10 +1453,18 @@
       <c r="E12" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="F12" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16" t="s">
         <v>23</v>
@@ -1379,10 +1523,18 @@
       <c r="E14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="F14" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="J14" s="16" t="s">
         <v>67</v>
       </c>
@@ -1414,10 +1566,18 @@
       <c r="E15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="F15" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="J15" s="16" t="s">
         <v>67</v>
       </c>
@@ -1449,8 +1609,12 @@
       <c r="E16" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16" t="s">
@@ -1484,10 +1648,18 @@
       <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="F17" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>66</v>
       </c>
@@ -1519,10 +1691,18 @@
       <c r="E18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="F18" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="J18" s="16" t="s">
         <v>65</v>
       </c>
@@ -1556,10 +1736,18 @@
       <c r="E19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="F19" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="J19" s="16" t="s">
         <v>65</v>
       </c>
@@ -1624,10 +1812,18 @@
       <c r="E21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="F21" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="J21" s="16" t="s">
         <v>65</v>
       </c>
@@ -1659,10 +1855,18 @@
       <c r="E22" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="F22" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="J22" s="16" t="s">
         <v>66</v>
       </c>
@@ -1694,10 +1898,18 @@
       <c r="E23" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="F23" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="J23" s="16" t="s">
         <v>65</v>
       </c>
@@ -1729,10 +1941,18 @@
       <c r="E24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="F24" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="J24" s="16" t="s">
         <v>65</v>
       </c>
@@ -1830,10 +2050,18 @@
       <c r="E27" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="F27" s="14">
+        <v>44973</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="J27" s="16" t="s">
         <v>71</v>
       </c>

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
@@ -1157,10 +1157,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1542,7 +1542,7 @@
         <v>23</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="17" t="s">
@@ -1585,7 +1585,7 @@
         <v>23</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="17" t="s">
@@ -1624,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="17" t="s">
@@ -1667,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="17" t="s">
@@ -1710,7 +1710,7 @@
         <v>23</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="17" t="s">
@@ -1755,7 +1755,7 @@
         <v>23</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="17" t="s">
@@ -1831,7 +1831,7 @@
         <v>23</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M21" s="16"/>
       <c r="N21" s="17" t="s">
@@ -1874,7 +1874,7 @@
         <v>23</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M22" s="16"/>
       <c r="N22" s="17" t="s">
@@ -1917,7 +1917,7 @@
         <v>23</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M23" s="16"/>
       <c r="N23" s="17" t="s">
@@ -1960,7 +1960,7 @@
         <v>23</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M24" s="16"/>
       <c r="N24" s="17" t="s">

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
@@ -427,22 +427,7 @@
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.f1d3da9f95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-02-16T10:56:24Z</t>
-  </si>
-  <si>
-    <t>383487740e40dc1d</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2023-02-16T10:58:05Z</t>
-  </si>
-  <si>
-    <t>d5d25318ad4b2383</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.335aeffdf1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>2023-02-16T10:59:43Z</t>
@@ -518,6 +503,21 @@
   </si>
   <si>
     <t>2023-02-16T11:35:48Z</t>
+  </si>
+  <si>
+    <t>2023-02-22T11:41:33Z</t>
+  </si>
+  <si>
+    <t>023903a089c98977</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.31ddfdfedf10087dbe67c4d0c960b3996be1bf5a42cfa33a4e268c8ee80d99e3.aa1c80e57b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c7476a627ecb17c0</t>
+  </si>
+  <si>
+    <t>2023-02-22T11:45:05Z</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -817,9 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1157,10 +1154,10 @@
   <dimension ref="A1:O873"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1196,12 +1193,12 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="26"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1214,14 +1211,14 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1234,12 +1231,12 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1253,12 +1250,12 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1271,8 +1268,8 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1372,31 +1369,31 @@
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>44973</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="75.75" thickBot="1">
       <c r="A11" s="11">
@@ -1411,31 +1408,31 @@
       <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>44973</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" ht="75.75" thickBot="1">
       <c r="A12" s="11">
@@ -1450,31 +1447,31 @@
       <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>44973</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:15" ht="75.75" thickBot="1">
       <c r="A13" s="11">
@@ -1489,23 +1486,23 @@
       <c r="D13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16" t="s">
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:15" ht="90.75" thickBot="1">
       <c r="A14" s="11">
@@ -1520,35 +1517,35 @@
       <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14">
-        <v>44973</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="13">
+        <v>44979</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="M14" s="15"/>
+      <c r="N14" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:15" ht="105.75" thickBot="1">
       <c r="A15" s="11">
@@ -1563,35 +1560,35 @@
       <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="14">
-        <v>44973</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="F15" s="13">
+        <v>44979</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="11">
@@ -1606,31 +1603,31 @@
       <c r="D16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>44973</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16" t="s">
+      <c r="G16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="15"/>
+      <c r="N16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="18"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:15" ht="75.75" thickBot="1">
       <c r="A17" s="11">
@@ -1645,35 +1642,35 @@
       <c r="D17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>44973</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="16" t="s">
+      <c r="G17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="16"/>
-      <c r="N17" s="17" t="s">
+      <c r="M17" s="15"/>
+      <c r="N17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O17" s="18"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" ht="75.75" thickBot="1">
       <c r="A18" s="11">
@@ -1688,35 +1685,35 @@
       <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>44973</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18" s="16" t="s">
+      <c r="G18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17" t="s">
+      <c r="M18" s="15"/>
+      <c r="N18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="18" t="s">
+      <c r="O18" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1733,35 +1730,35 @@
       <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>44973</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="G19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="N19" s="17" t="s">
+      <c r="M19" s="15"/>
+      <c r="N19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" ht="75.75" thickBot="1">
       <c r="A20" s="11">
@@ -1776,25 +1773,25 @@
       <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16" t="s">
+      <c r="L20" s="15"/>
+      <c r="M20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="N20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="18"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="1:15" ht="75.75" thickBot="1">
       <c r="A21" s="11">
@@ -1809,35 +1806,35 @@
       <c r="D21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>44973</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="16" t="s">
+      <c r="G21" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O21" s="18"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="1:15" ht="75.75" thickBot="1">
       <c r="A22" s="11">
@@ -1852,35 +1849,35 @@
       <c r="D22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>44973</v>
       </c>
-      <c r="G22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J22" s="16" t="s">
+      <c r="G22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17" t="s">
+      <c r="M22" s="15"/>
+      <c r="N22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" ht="75.75" thickBot="1">
       <c r="A23" s="11">
@@ -1895,35 +1892,35 @@
       <c r="D23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>44973</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="G23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17" t="s">
+      <c r="M23" s="15"/>
+      <c r="N23" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" ht="75.75" thickBot="1">
       <c r="A24" s="11">
@@ -1938,35 +1935,35 @@
       <c r="D24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>44973</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="16" t="s">
+      <c r="G24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="18"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" ht="75.75" thickBot="1">
       <c r="A25" s="11">
@@ -1981,25 +1978,25 @@
       <c r="D25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16" t="s">
+      <c r="L25" s="15"/>
+      <c r="M25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="N25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="18"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="75.75" thickBot="1">
       <c r="A26" s="11">
@@ -2014,25 +2011,25 @@
       <c r="D26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16" t="s">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="N26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O26" s="18"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" ht="75.75" thickBot="1">
       <c r="A27" s="11">
@@ -2047,33 +2044,33 @@
       <c r="D27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>44973</v>
       </c>
-      <c r="G27" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="G27" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17" t="s">
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" ht="75">
       <c r="A28" s="11">
@@ -2088,25 +2085,25 @@
       <c r="D28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16" t="s">
+      <c r="L28" s="15"/>
+      <c r="M28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="N28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O28" s="18"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15">
       <c r="F29" s="2"/>
@@ -12287,26 +12284,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
@@ -14,11 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$9:$O$28</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhXj7RfszpgZKzxg8oD/Tet7lb94w=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -35,6 +30,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -51,6 +47,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -67,6 +64,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -86,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -170,6 +168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -178,6 +177,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
@@ -190,6 +190,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -198,6 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
@@ -214,6 +216,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -222,6 +225,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
@@ -234,6 +238,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -242,6 +247,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -376,25 +382,10 @@
     <t>Non gestita dall'applicativo</t>
   </si>
   <si>
-    <t>Errore validazione CDA: Errore semantico.</t>
-  </si>
-  <si>
-    <t>Errore validazione CDA: Errore di sintassi.</t>
-  </si>
-  <si>
-    <t>Errore validazione CDA: Campo token JWT non valido.</t>
-  </si>
-  <si>
     <t>Il codice fiscale viene convertito in caratteri maiuscoli nel CDA automaticamente dal programma</t>
   </si>
   <si>
-    <t>Errore validazione CDA: il servizio ha impiegato troppo tempo a rispondere</t>
-  </si>
-  <si>
     <t>Se il comune di residenza non è presente, l'indirizzo di residenza del paziente non viene inserito nel CDA</t>
-  </si>
-  <si>
-    <t>Errore validazione CDA: Errore vocabolario.</t>
   </si>
   <si>
     <t>subject_application_version: 1.0</t>
@@ -407,24 +398,6 @@
   </si>
   <si>
     <t>2023-02-16T09:58:49Z</t>
-  </si>
-  <si>
-    <t>2023-02-16T10:06:59Z</t>
-  </si>
-  <si>
-    <t>0797be1e29ae8e9b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3c9580e89dfc8ee90f9594bbc6797e13e95777e281f776721460405d74e90bfc.50fb6a4f4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-02-16T10:12:00Z</t>
-  </si>
-  <si>
-    <t>499278d99079013e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.f1d3da9f95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -519,12 +492,37 @@
   <si>
     <t>2023-02-22T11:45:05Z</t>
   </si>
+  <si>
+    <t>Errore validazione CDA: Campo token JWT non valido.
+L'errore viene segnalato all'utente.
+Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: il servizio ha impiegato troppo tempo a rispondere.
+L'errore viene segnalato all'utente.
+In questo caso il documento viene comunque fatto firmare e pubblicato. Si potrà decidere con il cliente se impostare re-invii automatici o manuali.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Errore di sintassi.
+L'errore viene segnalato all'utente.
+Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'utente o all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Errore semantico.
+L'errore viene segnalato all'utente.
+Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'utente o all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
+  </si>
+  <si>
+    <t>Errore validazione CDA: Errore vocabolario.
+L'errore viene segnalato all'utente.
+Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'utente o all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,30 +530,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,6 +581,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -779,96 +797,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale 2" xfId="1"/>
+    <cellStyle name="Normale 3" xfId="2"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -1153,11 +1211,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O873"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1193,12 +1251,12 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="29"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1211,14 +1269,14 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="29"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1231,12 +1289,12 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1250,12 +1308,12 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="29"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1268,8 +1326,8 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1376,13 +1434,13 @@
         <v>44973</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
@@ -1411,25 +1469,15 @@
       <c r="E11" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="13">
-        <v>44973</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>78</v>
-      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="16"/>
       <c r="O11" s="17"/>
@@ -1450,25 +1498,15 @@
       <c r="E12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="13">
-        <v>44973</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>81</v>
-      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
@@ -1504,7 +1542,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:15" ht="90.75" thickBot="1">
+    <row r="14" spans="1:15" ht="135.75" thickBot="1">
       <c r="A14" s="11">
         <v>29</v>
       </c>
@@ -1524,16 +1562,16 @@
         <v>44979</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>102</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
@@ -1547,7 +1585,7 @@
       </c>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="105.75" thickBot="1">
+    <row r="15" spans="1:15" ht="135.75" thickBot="1">
       <c r="A15" s="11">
         <v>37</v>
       </c>
@@ -1567,16 +1605,16 @@
         <v>44979</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>67</v>
+        <v>99</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>23</v>
@@ -1590,7 +1628,7 @@
       </c>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1">
+    <row r="16" spans="1:15" ht="90.75" thickBot="1">
       <c r="A16" s="11">
         <v>45</v>
       </c>
@@ -1610,12 +1648,12 @@
         <v>44973</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="15" t="s">
-        <v>69</v>
+      <c r="J16" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>23</v>
@@ -1629,7 +1667,7 @@
       </c>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" ht="75.75" thickBot="1">
+    <row r="17" spans="1:15" ht="135.75" thickBot="1">
       <c r="A17" s="11">
         <v>63</v>
       </c>
@@ -1649,16 +1687,16 @@
         <v>44973</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>23</v>
@@ -1672,7 +1710,7 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15" ht="75.75" thickBot="1">
+    <row r="18" spans="1:15" ht="135.75" thickBot="1">
       <c r="A18" s="11">
         <v>64</v>
       </c>
@@ -1692,16 +1730,16 @@
         <v>44973</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>23</v>
@@ -1713,11 +1751,11 @@
       <c r="N18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="75.75" thickBot="1">
+      <c r="O18" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="135.75" thickBot="1">
       <c r="A19" s="11">
         <v>65</v>
       </c>
@@ -1737,16 +1775,16 @@
         <v>44973</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>65</v>
+        <v>81</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>23</v>
@@ -1786,14 +1824,14 @@
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" ht="75.75" thickBot="1">
+    <row r="21" spans="1:15" ht="135.75" thickBot="1">
       <c r="A21" s="11">
         <v>67</v>
       </c>
@@ -1813,16 +1851,16 @@
         <v>44973</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>23</v>
@@ -1836,7 +1874,7 @@
       </c>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="75.75" thickBot="1">
+    <row r="22" spans="1:15" ht="135.75" thickBot="1">
       <c r="A22" s="11">
         <v>68</v>
       </c>
@@ -1856,16 +1894,16 @@
         <v>44973</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>66</v>
+        <v>86</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>104</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>23</v>
@@ -1879,7 +1917,7 @@
       </c>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="1:15" ht="75.75" thickBot="1">
+    <row r="23" spans="1:15" ht="135.75" thickBot="1">
       <c r="A23" s="11">
         <v>69</v>
       </c>
@@ -1899,16 +1937,16 @@
         <v>44973</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>65</v>
+        <v>93</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>105</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>23</v>
@@ -1922,7 +1960,7 @@
       </c>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="75.75" thickBot="1">
+    <row r="24" spans="1:15" ht="135.75" thickBot="1">
       <c r="A24" s="11">
         <v>70</v>
       </c>
@@ -1942,16 +1980,16 @@
         <v>44973</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="I24" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="45" t="s">
         <v>105</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>23</v>
@@ -2031,7 +2069,7 @@
       </c>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15" ht="75.75" thickBot="1">
+    <row r="27" spans="1:15" ht="135.75" thickBot="1">
       <c r="A27" s="11">
         <v>73</v>
       </c>
@@ -2051,16 +2089,16 @@
         <v>44973</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I27" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="46" t="s">
         <v>106</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>23</v>
@@ -12265,8 +12303,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111LOGO80X00000/Log80_s.r.l/SUITE_LOG80/1.0/report-checklist.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -391,13 +391,7 @@
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.3c9580e89dfc8ee90f9594bbc6797e13e95777e281f776721460405d74e90bfc.c9c1b8f7e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>3885948633e2430a</t>
-  </si>
-  <si>
-    <t>2023-02-16T09:58:49Z</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -517,12 +511,21 @@
 L'errore viene segnalato all'utente.
 Si potrà decidere con il cliente se rendere l'errore bloccante, e quindi chiedere di correggere il dato all'utente o all'operatore di back-office prima di procedere con la firma e con la pubblicazione, oppure proseguire comunque con la firma e pubblicazione del documento ed eventualmente correggere successivamente il problema con un referto sostitutivo.</t>
   </si>
+  <si>
+    <t>2023-04-21T14:04:58Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.70073af09e34df4005c52f39dece35c5f7521e873bbb0710cb5a3ee0117438ec.9bf7311954^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce alcune sezioni opzionali nel dettaglio richiesto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +590,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -802,7 +810,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -873,28 +881,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -920,6 +906,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1215,7 +1229,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1251,12 +1265,12 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" ht="18.75">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1269,14 +1283,14 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1289,12 +1303,12 @@
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1308,12 +1322,12 @@
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="38"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1326,8 +1340,8 @@
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1431,16 +1445,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="13">
-        <v>44973</v>
+        <v>45037</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
@@ -1478,7 +1492,9 @@
         <v>43</v>
       </c>
       <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="48" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="17"/>
     </row>
@@ -1507,7 +1523,9 @@
         <v>43</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="47" t="s">
+        <v>107</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
     </row>
@@ -1562,16 +1580,16 @@
         <v>44979</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>23</v>
@@ -1605,16 +1623,16 @@
         <v>44979</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>23</v>
@@ -1648,12 +1666,12 @@
         <v>44973</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>23</v>
@@ -1687,16 +1705,16 @@
         <v>44973</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>104</v>
+      <c r="J17" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>23</v>
@@ -1730,16 +1748,16 @@
         <v>44973</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>105</v>
+      <c r="J18" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>23</v>
@@ -1751,7 +1769,7 @@
       <c r="N18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="O18" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1775,16 +1793,16 @@
         <v>44973</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="41" t="s">
-        <v>105</v>
+      <c r="J19" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>23</v>
@@ -1851,16 +1869,16 @@
         <v>44973</v>
       </c>
       <c r="G21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>105</v>
+      <c r="J21" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>23</v>
@@ -1894,16 +1912,16 @@
         <v>44973</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>104</v>
+        <v>84</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>23</v>
@@ -1937,16 +1955,16 @@
         <v>44973</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="44" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>23</v>
@@ -1980,16 +1998,16 @@
         <v>44973</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>105</v>
+        <v>92</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>23</v>
@@ -2089,16 +2107,16 @@
         <v>44973</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>106</v>
+        <v>93</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>104</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>23</v>
